--- a/D_Keywords.xlsx
+++ b/D_Keywords.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="268">
   <si>
     <t>RS D_Trigger</t>
   </si>
@@ -825,6 +825,12 @@
   </si>
   <si>
     <t>Dalit Panthers</t>
+  </si>
+  <si>
+    <t>untouchable</t>
+  </si>
+  <si>
+    <t>अछूत</t>
   </si>
 </sst>
 </file>
@@ -841,24 +847,29 @@
       <b/>
       <sz val="12"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF454545"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -868,6 +879,7 @@
       <sz val="12"/>
       <color rgb="FF212121"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1192,8 +1204,8 @@
   </sheetPr>
   <dimension ref="A1:J89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1944,6 +1956,9 @@
         <v>174</v>
       </c>
       <c r="E45" s="2"/>
+      <c r="G45" s="3" t="s">
+        <v>267</v>
+      </c>
       <c r="J45" s="3" t="s">
         <v>175</v>
       </c>
@@ -2021,6 +2036,9 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>266</v>
+      </c>
       <c r="D52" s="3" t="s">
         <v>194</v>
       </c>
